--- a/exports/arayashiki_daily_report_2025-02-24.xlsx
+++ b/exports/arayashiki_daily_report_2025-02-24.xlsx
@@ -43,7 +43,7 @@
     <t>2025-02-24</t>
   </si>
   <si>
-    <t>dsdssd</t>
+    <t>OLB</t>
   </si>
   <si>
     <t>Yesukiru</t>
